--- a/data/interface.xlsx
+++ b/data/interface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="12540" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$1:$J$60</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'Sheet1'!$A$1:$J$60</definedName>
   </definedNames>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00_ "/>
+    <numFmt formatCode="0.00_ " numFmtId="164"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -497,260 +497,260 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="10" fontId="9" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="11" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="8" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="27" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="27" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="14" fontId="11" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="4" fillId="0" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="31" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="10">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
+    <cellStyle builtinId="7" name="货币[0]" xfId="1"/>
+    <cellStyle builtinId="38" name="20% - 强调文字颜色 3" xfId="2"/>
+    <cellStyle builtinId="20" name="输入" xfId="3"/>
+    <cellStyle builtinId="4" name="货币" xfId="4"/>
+    <cellStyle builtinId="6" name="千位分隔[0]" xfId="5"/>
+    <cellStyle builtinId="39" name="40% - 强调文字颜色 3" xfId="6"/>
+    <cellStyle builtinId="27" name="差" xfId="7"/>
+    <cellStyle builtinId="3" name="千位分隔" xfId="8"/>
+    <cellStyle builtinId="40" name="60% - 强调文字颜色 3" xfId="9"/>
+    <cellStyle builtinId="8" name="超链接" xfId="10"/>
+    <cellStyle builtinId="5" name="百分比" xfId="11"/>
+    <cellStyle builtinId="9" name="已访问的超链接" xfId="12"/>
+    <cellStyle builtinId="10" name="注释" xfId="13"/>
+    <cellStyle builtinId="36" name="60% - 强调文字颜色 2" xfId="14"/>
+    <cellStyle builtinId="19" name="标题 4" xfId="15"/>
+    <cellStyle builtinId="11" name="警告文本" xfId="16"/>
+    <cellStyle builtinId="15" name="标题" xfId="17"/>
+    <cellStyle builtinId="53" name="解释性文本" xfId="18"/>
+    <cellStyle builtinId="16" name="标题 1" xfId="19"/>
+    <cellStyle builtinId="17" name="标题 2" xfId="20"/>
+    <cellStyle builtinId="32" name="60% - 强调文字颜色 1" xfId="21"/>
+    <cellStyle builtinId="18" name="标题 3" xfId="22"/>
+    <cellStyle builtinId="44" name="60% - 强调文字颜色 4" xfId="23"/>
+    <cellStyle builtinId="21" name="输出" xfId="24"/>
+    <cellStyle builtinId="22" name="计算" xfId="25"/>
+    <cellStyle builtinId="23" name="检查单元格" xfId="26"/>
+    <cellStyle builtinId="50" name="20% - 强调文字颜色 6" xfId="27"/>
+    <cellStyle builtinId="33" name="强调文字颜色 2" xfId="28"/>
+    <cellStyle builtinId="24" name="链接单元格" xfId="29"/>
+    <cellStyle builtinId="25" name="汇总" xfId="30"/>
+    <cellStyle builtinId="26" name="好" xfId="31"/>
+    <cellStyle builtinId="28" name="适中" xfId="32"/>
+    <cellStyle builtinId="46" name="20% - 强调文字颜色 5" xfId="33"/>
+    <cellStyle builtinId="29" name="强调文字颜色 1" xfId="34"/>
+    <cellStyle builtinId="30" name="20% - 强调文字颜色 1" xfId="35"/>
+    <cellStyle builtinId="31" name="40% - 强调文字颜色 1" xfId="36"/>
+    <cellStyle builtinId="34" name="20% - 强调文字颜色 2" xfId="37"/>
+    <cellStyle builtinId="35" name="40% - 强调文字颜色 2" xfId="38"/>
+    <cellStyle builtinId="37" name="强调文字颜色 3" xfId="39"/>
+    <cellStyle builtinId="41" name="强调文字颜色 4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - 强调文字颜色 4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - 强调文字颜色 4" xfId="42"/>
+    <cellStyle builtinId="45" name="强调文字颜色 5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - 强调文字颜色 5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - 强调文字颜色 5" xfId="45"/>
+    <cellStyle builtinId="49" name="强调文字颜色 6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - 强调文字颜色 6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - 强调文字颜色 6" xfId="48"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -1107,7 +1107,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1115,27 +1115,27 @@
   <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A47" ySplit="1"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2:J13"/>
+      <selection activeCell="J2" pane="bottomLeft" sqref="J2:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col width="14.7083333333333" customWidth="1" style="6" min="1" max="1"/>
-    <col width="37.25" customWidth="1" style="7" min="2" max="2"/>
-    <col width="9.324999999999999" customWidth="1" style="6" min="3" max="3"/>
-    <col width="17.7916666666667" customWidth="1" style="16" min="4" max="4"/>
-    <col width="15.0916666666667" customWidth="1" style="6" min="5" max="5"/>
-    <col width="13.175" customWidth="1" style="6" min="6" max="6"/>
-    <col width="30" customWidth="1" style="9" min="7" max="7"/>
-    <col width="27.2083333333333" customWidth="1" style="6" min="8" max="8"/>
-    <col width="20.7583333333333" customWidth="1" style="6" min="9" max="9"/>
-    <col width="17.375" customWidth="1" style="6" min="10" max="10"/>
-    <col width="9" customWidth="1" style="4" min="11" max="16384"/>
+    <col customWidth="1" max="1" min="1" style="6" width="14.7083333333333"/>
+    <col customWidth="1" max="2" min="2" style="7" width="37.25"/>
+    <col customWidth="1" max="3" min="3" style="6" width="9.324999999999999"/>
+    <col customWidth="1" max="4" min="4" style="16" width="17.7916666666667"/>
+    <col customWidth="1" max="5" min="5" style="6" width="15.0916666666667"/>
+    <col customWidth="1" max="6" min="6" style="6" width="13.175"/>
+    <col customWidth="1" max="7" min="7" style="9" width="30"/>
+    <col customWidth="1" max="8" min="8" style="6" width="27.2083333333333"/>
+    <col customWidth="1" max="9" min="9" style="6" width="20.7583333333333"/>
+    <col customWidth="1" max="10" min="10" style="6" width="17.375"/>
+    <col customWidth="1" max="16384" min="11" style="4" width="9"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row customFormat="1" r="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -1187,7 +1187,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="18" customFormat="1" customHeight="1" s="5">
+    <row customFormat="1" customHeight="1" ht="18" r="2" s="5">
       <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" ht="15" customFormat="1" customHeight="1" s="5">
+    <row customFormat="1" customHeight="1" ht="15" r="3" s="5">
       <c r="A3" s="5" t="n">
         <v>2</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" ht="27" customFormat="1" customHeight="1" s="5">
+    <row customFormat="1" customHeight="1" ht="27" r="4" s="5">
       <c r="A4" s="5" t="n">
         <v>3</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="5" s="2">
       <c r="A5" s="13" t="n">
         <v>4</v>
       </c>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="D5" s="16" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
@@ -1335,7 +1335,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="6" s="2">
       <c r="A6" s="13" t="n">
         <v>5</v>
       </c>
@@ -1349,7 +1349,7 @@
       </c>
       <c r="D6" s="16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
@@ -1381,7 +1381,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="7" s="2">
       <c r="A7" s="13" t="n">
         <v>6</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="8" s="2">
       <c r="A8" s="13" t="n">
         <v>7</v>
       </c>
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D8" s="16" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
@@ -1473,7 +1473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="9" s="2">
       <c r="A9" s="13" t="n">
         <v>8</v>
       </c>
@@ -1487,7 +1487,7 @@
       </c>
       <c r="D9" s="16" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
@@ -1519,7 +1519,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="10" s="2">
       <c r="A10" s="13" t="n">
         <v>9</v>
       </c>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D10" s="16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
@@ -1565,7 +1565,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="11" s="2">
       <c r="A11" s="13" t="n">
         <v>10</v>
       </c>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="D11" s="16" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
@@ -1611,7 +1611,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="12" s="2">
       <c r="A12" s="13" t="n">
         <v>11</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" ht="67.5" customHeight="1" s="2">
+    <row customHeight="1" ht="67.5" r="13" s="2">
       <c r="A13" s="13" t="n">
         <v>12</v>
       </c>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="D13" s="16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
@@ -1703,7 +1703,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="14" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="14" s="2">
       <c r="A14" s="13" t="n">
         <v>13</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="15" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="15" s="2">
       <c r="A15" s="13" t="n">
         <v>14</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" ht="54" customHeight="1" s="2">
+    <row customHeight="1" ht="54" r="16" s="2">
       <c r="A16" s="13" t="n">
         <v>15</v>
       </c>
@@ -1805,11 +1805,11 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="D16" s="16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
@@ -1841,7 +1841,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="17" ht="54" customHeight="1" s="2">
+    <row customHeight="1" ht="54" r="17" s="2">
       <c r="A17" s="13" t="n">
         <v>16</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" ht="162" customHeight="1" s="2">
+    <row customHeight="1" ht="162" r="18" s="2">
       <c r="A18" s="13" t="n">
         <v>17</v>
       </c>
@@ -1933,7 +1933,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="19" s="2">
       <c r="A19" s="13" t="n">
         <v>18</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="20" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="20" s="2">
       <c r="A20" s="13" t="n">
         <v>19</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="21" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="21" s="2">
       <c r="A21" s="13" t="n">
         <v>20</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="22" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="22" s="2">
       <c r="A22" s="13" t="n">
         <v>21</v>
       </c>
@@ -2117,7 +2117,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="23" s="2">
       <c r="A23" s="13" t="n">
         <v>22</v>
       </c>
@@ -2163,7 +2163,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="24" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="24" s="2">
       <c r="A24" s="13" t="n">
         <v>23</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="25" s="2">
       <c r="A25" s="13" t="n">
         <v>24</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="27" s="2">
       <c r="A27" s="13" t="n">
         <v>26</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="29" s="2">
       <c r="A29" s="13" t="n">
         <v>28</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="30" ht="54" customHeight="1" s="2">
+    <row customHeight="1" ht="54" r="30" s="2">
       <c r="A30" s="13" t="n">
         <v>29</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="31" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="31" s="2">
       <c r="A31" s="13" t="n">
         <v>30</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="32" s="2">
       <c r="A32" s="13" t="n">
         <v>31</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="33" s="2">
       <c r="A33" s="13" t="n">
         <v>32</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="34" s="2">
       <c r="A34" s="13" t="n">
         <v>33</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="35" ht="121.5" customHeight="1" s="2">
+    <row customHeight="1" ht="121.5" r="35" s="2">
       <c r="A35" s="13" t="n">
         <v>34</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="36" ht="54" customHeight="1" s="2">
+    <row customHeight="1" ht="54" r="36" s="2">
       <c r="A36" s="13" t="n">
         <v>35</v>
       </c>
@@ -2761,7 +2761,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="37" s="2">
       <c r="A37" s="13" t="n">
         <v>36</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="38" s="2">
       <c r="A38" s="13" t="n">
         <v>37</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" ht="67.5" customHeight="1" s="2">
+    <row customHeight="1" ht="67.5" r="39" s="2">
       <c r="A39" s="13" t="n">
         <v>38</v>
       </c>
@@ -2899,7 +2899,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="40" s="2">
       <c r="A40" s="13" t="n">
         <v>39</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="41" s="2">
       <c r="A41" s="13" t="n">
         <v>40</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="42" s="2">
       <c r="A42" s="13" t="n">
         <v>41</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="43" s="2">
       <c r="A43" s="13" t="n">
         <v>42</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="44" s="2">
       <c r="A44" s="13" t="n">
         <v>43</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="45" s="2">
       <c r="A45" s="13" t="n">
         <v>44</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="46" s="2">
       <c r="A46" s="13" t="n">
         <v>45</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="47" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="47" s="2">
       <c r="A47" s="13" t="n">
         <v>46</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="48" s="2">
       <c r="A48" s="13" t="n">
         <v>47</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="50" s="2">
       <c r="A50" s="13" t="n">
         <v>49</v>
       </c>
@@ -3405,7 +3405,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="51" s="2">
       <c r="A51" s="13" t="n">
         <v>50</v>
       </c>
@@ -3451,7 +3451,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="52" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="52" s="2">
       <c r="A52" s="13" t="n">
         <v>51</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="53" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="53" s="2">
       <c r="A53" s="13" t="n">
         <v>52</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="55" s="2">
       <c r="A55" s="13" t="n">
         <v>54</v>
       </c>
@@ -3635,7 +3635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="56" s="2">
       <c r="A56" s="13" t="n">
         <v>55</v>
       </c>
@@ -3681,7 +3681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="57" ht="40.5" customHeight="1" s="2">
+    <row customHeight="1" ht="40.5" r="57" s="2">
       <c r="A57" s="13" t="n">
         <v>56</v>
       </c>
@@ -3727,7 +3727,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="58" ht="27" customHeight="1" s="2">
+    <row customHeight="1" ht="27" r="58" s="2">
       <c r="A58" s="13" t="n">
         <v>57</v>
       </c>
@@ -3773,7 +3773,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="59" ht="67.5" customHeight="1" s="2">
+    <row customHeight="1" ht="67.5" r="59" s="2">
       <c r="A59" s="13" t="n">
         <v>58</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="60" ht="67.5" customHeight="1" s="2">
+    <row customHeight="1" ht="67.5" r="60" s="2">
       <c r="A60" s="13" t="n">
         <v>59</v>
       </c>
@@ -3868,70 +3868,70 @@
   </sheetData>
   <autoFilter ref="A1:J60"/>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G2" display="https://sales-test.tangees.com" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H2" tooltip="https://sales-test.tangees.com/api/advance-search" display="/api/advance-search" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G3" display="https://sales-test.tangees.com" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H3" display="/api/track/common" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G4" display="https://sales-test.tangees.com" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="H4" display="/api/search/batch/get-batch-location-info" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G5" display="https://plan-test.tangees.com" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G6" display="https://plan-test.tangees.com" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G7" display="https://plan-test.tangees.com" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G8" display="https://plan-test.tangees.com" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G9" display="https://plan-test.tangees.com" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G10" display="https://plan-test.tangees.com" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G11" display="https://plan-test.tangees.com" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G12" display="https://plan-test.tangees.com" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G13" display="https://plan-test.tangees.com" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G14" display="https://plan-test.tangees.com" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G15" display="https://plan-test.tangees.com" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G16" display="https://plan-test.tangees.com" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G17" display="https://plan-test.tangees.com" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G18" display="https://plan-test.tangees.com" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G19" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G20" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G21" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G22" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G23" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G24" display="https://sales-test.tangees.com" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G25" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G26" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G27" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G28" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G29" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G30" tooltip="https://sales-test.tangees.com" display="https://sales-test.tangees.com" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G31" display="https://ire-test.tangees.com" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G32" display="https://ire-test.tangees.com" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G33" display="https://ire-test.tangees.com" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G34" display="https://ire-test.tangees.com" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G35" display="https://ire-test.tangees.com" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G36" display="https://ire-test.tangees.com" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G37" display="https://ire-test.tangees.com" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G38" display="https://ire-test.tangees.com" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G39" display="https://ire-test.tangees.com" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G40" display="https://ire-test.tangees.com" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G41" display="https://ire-test.tangees.com" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G42" display="https://ire-test.tangees.com" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G43" display="https://ire-test.tangees.com" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G44" display="https://ire-test.tangees.com" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G45" display="https://ire-test.tangees.com" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G46" display="https://ire-test.tangees.com" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G47" display="https://sales-test.tangees.com" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G48" display="https://sales-test.tangees.com" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G49" display="https://sales-test.tangees.com" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G50" display="https://sales-test.tangees.com" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G51" display="https://sales-test.tangees.com" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G52" display="https://sales-test.tangees.com" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G53" display="https://sales-test.tangees.com" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G54" display="https://sales-test.tangees.com" r:id="rId56"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G55" display="https://ire-test.tangees.com" r:id="rId57"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G56" display="https://ire-test.tangees.com" r:id="rId58"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G57" display="https://ire-test.tangees.com" r:id="rId59"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G58" display="https://ire-test.tangees.com" r:id="rId60"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G59" display="https://ire-test.tangees.com" r:id="rId61"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="G60" display="https://ire-test.tangees.com" r:id="rId62"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G2" r:id="rId1"/>
+    <hyperlink display="/api/advance-search" ref="H2" tooltip="https://sales-test.tangees.com/api/advance-search" r:id="rId2"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G3" r:id="rId3"/>
+    <hyperlink display="/api/track/common" ref="H3" r:id="rId4"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G4" r:id="rId5"/>
+    <hyperlink display="/api/search/batch/get-batch-location-info" ref="H4" r:id="rId6"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G5" r:id="rId7"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G6" r:id="rId8"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G7" r:id="rId9"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G8" r:id="rId10"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G9" r:id="rId11"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G10" r:id="rId12"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G11" r:id="rId13"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G12" r:id="rId14"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G13" r:id="rId15"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G14" r:id="rId16"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G15" r:id="rId17"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G16" r:id="rId18"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G17" r:id="rId19"/>
+    <hyperlink display="https://plan-test.tangees.com" ref="G18" r:id="rId20"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G19" tooltip="https://sales-test.tangees.com" r:id="rId21"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G20" tooltip="https://sales-test.tangees.com" r:id="rId22"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G21" tooltip="https://sales-test.tangees.com" r:id="rId23"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G22" tooltip="https://sales-test.tangees.com" r:id="rId24"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G23" tooltip="https://sales-test.tangees.com" r:id="rId25"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G24" r:id="rId26"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G25" tooltip="https://sales-test.tangees.com" r:id="rId27"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G26" tooltip="https://sales-test.tangees.com" r:id="rId28"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G27" tooltip="https://sales-test.tangees.com" r:id="rId29"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G28" tooltip="https://sales-test.tangees.com" r:id="rId30"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G29" tooltip="https://sales-test.tangees.com" r:id="rId31"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G30" tooltip="https://sales-test.tangees.com" r:id="rId32"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G31" r:id="rId33"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G32" r:id="rId34"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G33" r:id="rId35"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G34" r:id="rId36"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G35" r:id="rId37"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G36" r:id="rId38"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G37" r:id="rId39"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G38" r:id="rId40"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G39" r:id="rId41"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G40" r:id="rId42"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G41" r:id="rId43"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G42" r:id="rId44"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G43" r:id="rId45"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G44" r:id="rId46"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G45" r:id="rId47"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G46" r:id="rId48"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G47" r:id="rId49"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G48" r:id="rId50"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G49" r:id="rId51"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G50" r:id="rId52"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G51" r:id="rId53"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G52" r:id="rId54"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G53" r:id="rId55"/>
+    <hyperlink display="https://sales-test.tangees.com" ref="G54" r:id="rId56"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G55" r:id="rId57"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G56" r:id="rId58"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G57" r:id="rId59"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G58" r:id="rId60"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G59" r:id="rId61"/>
+    <hyperlink display="https://ire-test.tangees.com" ref="G60" r:id="rId62"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
@@ -3950,10 +3950,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
   <cols>
-    <col width="18.875" customWidth="1" style="2" min="2" max="2"/>
+    <col customWidth="1" max="2" min="2" style="2" width="18.875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="1">
+    <row customFormat="1" r="1" s="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>case_id</t>
@@ -4046,7 +4046,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>